--- a/Algoritmo_Rota/Planilhas/BFS/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_32_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2575.666666666667</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2681</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2411</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02579650084177653</v>
+        <v>2082</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 18 -&gt; 10 -&gt; 7 -&gt; 2 -&gt; 1 -&gt; 25 -&gt; 27 -&gt; 30 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 16 -&gt; 19 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03292608261108398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2717.2</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>2774</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2691</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02575027942657471</v>
+        <v>2097</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 23 -&gt; 8 -&gt; 11 -&gt; 14 -&gt; 1 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 30 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03325200080871582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3022.766666666667</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3292</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2652</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02795166969299316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2888.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3257</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2765</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02998907566070557</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2620.666666666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2852</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2512</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03724745909372965</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2406.533333333333</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2299</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03729971249898275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2910.833333333333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3065</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2865</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.03785138924916585</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2926.933333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3143</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2763</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03770569165547689</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3081.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3297</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2783</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03420886198679606</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2740.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2861</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2706</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03443051179250081</v>
+        <v>2229</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 26 -&gt; 27 -&gt; 32 -&gt; 24 -&gt; 16 -&gt; 8 -&gt; 10 -&gt; 1 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0336153507232666</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BFS/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_32_10.xlsx
@@ -14,21 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Índice</t>
   </si>
   <si>
+    <t>inicio</t>
+  </si>
+  <si>
     <t>Distancia</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
+    <t>ativos</t>
+  </si>
+  <si>
+    <t>melhor rota</t>
+  </si>
+  <si>
+    <t>caminho</t>
   </si>
   <si>
     <t>Tempo</t>
+  </si>
+  <si>
+    <t>Tempo Heuristica</t>
+  </si>
+  <si>
+    <t>Tempo Total</t>
+  </si>
+  <si>
+    <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18</t>
+  </si>
+  <si>
+    <t>12 -&gt; 12 -&gt; 18 -&gt; 10 -&gt; 7 -&gt; 2 -&gt; 1 -&gt; 25 -&gt; 27 -&gt; 30 -&gt; 13 -&gt; 12</t>
+  </si>
+  <si>
+    <t>12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 29 -&gt; 13 -&gt; 12</t>
+  </si>
+  <si>
+    <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14</t>
+  </si>
+  <si>
+    <t>24 -&gt; 24 -&gt; 23 -&gt; 8 -&gt; 11 -&gt; 14 -&gt; 1 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 30 -&gt; 24</t>
+  </si>
+  <si>
+    <t>24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24</t>
+  </si>
+  <si>
+    <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6</t>
+  </si>
+  <si>
+    <t>6 -&gt; 6 -&gt; 26 -&gt; 27 -&gt; 32 -&gt; 24 -&gt; 16 -&gt; 8 -&gt; 10 -&gt; 1 -&gt; 9 -&gt; 6</t>
+  </si>
+  <si>
+    <t>6 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 6</t>
   </si>
 </sst>
 </file>
@@ -36,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,12 +86,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -84,22 +117,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -406,204 +445,137 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2242.833333333333</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2376</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2098</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.030538463592529</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2066</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>32.01647925376892</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>32.01647925376892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>1</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
+        <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>2247.266666666667</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2331</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2165</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.03082456588745117</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2082</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41.68382740020752</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41.68382740020752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
-        <v>2</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
+        <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>1987.2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2254</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1784</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.03404022852579753</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2313.8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2447</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2199</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.04014798800150553</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1974.966666666667</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2133</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1768</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.04020682175954183</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2146.7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2266</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2051</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.04085876146952312</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>2228.233333333333</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2355</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2136</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.0397137721379598</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2261.033333333333</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2476</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.03433294296264648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2425.133333333333</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2588</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2267</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.0307858149210612</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1968.733333333333</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2103</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1938</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.03131289482116699</v>
+      <c r="C4" s="4">
+        <v>2210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>38.06700992584229</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>38.06700992584229</v>
       </c>
     </row>
   </sheetData>
